--- a/tests/test3.xlsx
+++ b/tests/test3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="test7" sheetId="5" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="test11" sheetId="9" r:id="rId5"/>
     <sheet name="test12" sheetId="10" r:id="rId6"/>
     <sheet name="test13" sheetId="11" r:id="rId7"/>
+    <sheet name="test14" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="46">
   <si>
     <t>A1</t>
   </si>
@@ -155,6 +156,9 @@
   </si>
   <si>
     <t>blah13</t>
+  </si>
+  <si>
+    <t>blah14</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1437,4 +1441,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D68:H75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>